--- a/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-03-31.xlsx
+++ b/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-03-31.xlsx
@@ -2101,17 +2101,11 @@
     <xf numFmtId="176" fontId="24" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="24" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2123,6 +2117,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -20729,7 +20729,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20749,7 +20749,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20786,7 +20786,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20806,7 +20806,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20841,7 +20841,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20861,7 +20861,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20898,7 +20898,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20918,7 +20918,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20953,7 +20953,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20973,7 +20973,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21010,7 +21010,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21030,7 +21030,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21065,7 +21065,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21085,7 +21085,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21122,7 +21122,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21142,7 +21142,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21177,7 +21177,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21197,7 +21197,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21234,7 +21234,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21254,7 +21254,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21289,7 +21289,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21309,7 +21309,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21346,7 +21346,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21366,7 +21366,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21401,7 +21401,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21421,7 +21421,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21458,7 +21458,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21478,7 +21478,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21513,7 +21513,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21533,7 +21533,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21570,7 +21570,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21590,7 +21590,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21625,7 +21625,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21645,7 +21645,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21682,7 +21682,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21702,7 +21702,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21737,7 +21737,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21757,7 +21757,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21794,7 +21794,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21814,7 +21814,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21849,7 +21849,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21869,7 +21869,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21906,7 +21906,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21926,7 +21926,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -43937,7 +43937,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -43957,7 +43957,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -43994,7 +43994,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44014,7 +44014,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44049,7 +44049,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44069,7 +44069,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44106,7 +44106,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44126,7 +44126,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44161,7 +44161,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44181,7 +44181,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44218,7 +44218,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44238,7 +44238,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44273,7 +44273,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44293,7 +44293,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44330,7 +44330,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44350,7 +44350,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44385,7 +44385,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44405,7 +44405,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44442,7 +44442,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44462,7 +44462,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44497,7 +44497,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44517,7 +44517,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44554,7 +44554,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44574,7 +44574,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44609,7 +44609,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44629,7 +44629,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44666,7 +44666,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44686,7 +44686,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44721,7 +44721,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44741,7 +44741,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44778,7 +44778,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44798,7 +44798,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44833,7 +44833,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44853,7 +44853,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44890,7 +44890,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44910,7 +44910,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44945,7 +44945,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44965,7 +44965,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45002,7 +45002,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45022,7 +45022,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45057,7 +45057,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45077,7 +45077,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45114,7 +45114,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45134,7 +45134,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -51359,6 +51359,88 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId624" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19802475" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1180" name="Picture 1" descr="徽标"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1181" name="Picture 2" descr="cid:cfefaa3513">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId625" tgtFrame="_blank"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId626" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -51672,7 +51754,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -51725,10 +51807,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="13"/>
       <c r="F2" s="24"/>
       <c r="G2" s="14"/>
@@ -51739,27 +51821,27 @@
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="15">
         <f>SUM(E4:E41)</f>
-        <v>17724393.328699999</v>
+        <v>17733444.598700002</v>
       </c>
       <c r="F3" s="25">
         <f>RA!I7</f>
-        <v>1103427.8367000001</v>
+        <v>1103000.4867</v>
       </c>
       <c r="G3" s="16">
         <f>SUM(G4:G41)</f>
-        <v>16620965.492000001</v>
+        <v>16630444.112000002</v>
       </c>
       <c r="H3" s="27">
         <f>RA!J7</f>
-        <v>6.2254759090303402</v>
+        <v>6.2198885307418399</v>
       </c>
       <c r="I3" s="20">
         <f>SUM(I4:I41)</f>
@@ -51771,25 +51853,25 @@
       </c>
       <c r="K3" s="22">
         <f>E3-I3</f>
-        <v>-9054.8188521191478</v>
+        <v>-3.5488521158695221</v>
       </c>
       <c r="L3" s="22">
         <f>G3-J3</f>
-        <v>-9478.8611824288964</v>
+        <v>-0.24118242785334587</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="68">
+      <c r="A4" s="66">
         <f>RA!A8</f>
         <v>42460</v>
       </c>
       <c r="B4" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="15">
         <f>VLOOKUP(C4,RA!B8:D36,3,0)</f>
         <v>584395.46759999997</v>
@@ -51824,14 +51906,14 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="68"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="12">
         <v>13</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="15">
         <f>VLOOKUP(C5,RA!B8:D37,3,0)</f>
         <v>55871.022799999999</v>
@@ -51867,14 +51949,14 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="68"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="12">
         <v>14</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="15">
         <f>VLOOKUP(C6,RA!B10:D38,3,0)</f>
         <v>134383.41269999999</v>
@@ -51910,14 +51992,14 @@
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="68"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="12">
         <v>15</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="63"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="15">
         <f>VLOOKUP(C7,RA!B10:D39,3,0)</f>
         <v>48355.943500000001</v>
@@ -51953,14 +52035,14 @@
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="68"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="12">
         <v>16</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="63"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="15">
         <f>VLOOKUP(C8,RA!B12:D39,3,0)</f>
         <v>141813.15599999999</v>
@@ -51996,14 +52078,14 @@
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="68"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="12">
         <v>17</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="63"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="15">
         <f>VLOOKUP(C9,RA!B12:D40,3,0)</f>
         <v>159101.48509999999</v>
@@ -52039,14 +52121,14 @@
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="68"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="12">
         <v>18</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="63"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="15">
         <f>VLOOKUP(C10,RA!B14:D41,3,0)</f>
         <v>108531.38159999999</v>
@@ -52082,14 +52164,14 @@
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="68"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="12">
         <v>19</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="15">
         <f>VLOOKUP(C11,RA!B14:D42,3,0)</f>
         <v>62872.661200000002</v>
@@ -52125,14 +52207,14 @@
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="68"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="12">
         <v>21</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="15">
         <f>VLOOKUP(C12,RA!B16:D43,3,0)</f>
         <v>819361.91350000002</v>
@@ -52168,14 +52250,14 @@
       <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="68"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="12">
         <v>22</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="15">
         <f>VLOOKUP(C13,RA!B16:D44,3,0)</f>
         <v>469808.1447</v>
@@ -52211,14 +52293,14 @@
       <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="68"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="12">
         <v>23</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="63"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="15">
         <f>VLOOKUP(C14,RA!B18:D44,3,0)</f>
         <v>1641897.5026</v>
@@ -52254,14 +52336,14 @@
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="68"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="12">
         <v>24</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="15">
         <f>VLOOKUP(C15,RA!B18:D45,3,0)</f>
         <v>658734.08629999997</v>
@@ -52297,14 +52379,14 @@
       <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="68"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="12">
         <v>25</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="63"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="15">
         <f>VLOOKUP(C16,RA!B20:D46,3,0)</f>
         <v>966157.51210000005</v>
@@ -52340,14 +52422,14 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="68"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="12">
         <v>26</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="63"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="15">
         <f>VLOOKUP(C17,RA!B20:D47,3,0)</f>
         <v>341398.01539999997</v>
@@ -52383,14 +52465,14 @@
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="68"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="12">
         <v>27</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="63"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="15">
         <f>VLOOKUP(C18,RA!B22:D48,3,0)</f>
         <v>1613775.8504000001</v>
@@ -52426,14 +52508,14 @@
       <c r="M18" s="32"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="68"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="12">
         <v>29</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="63"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="15">
         <f>VLOOKUP(C19,RA!B22:D49,3,0)</f>
         <v>3045294.1749999998</v>
@@ -52469,14 +52551,14 @@
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="68"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="12">
         <v>31</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="63"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="15">
         <f>VLOOKUP(C20,RA!B24:D50,3,0)</f>
         <v>217860.58929999999</v>
@@ -52512,14 +52594,14 @@
       <c r="M20" s="32"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="68"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="12">
         <v>32</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="63"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="15">
         <f>VLOOKUP(C21,RA!B24:D51,3,0)</f>
         <v>262960.43219999998</v>
@@ -52555,14 +52637,14 @@
       <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="68"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="12">
         <v>33</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="63"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="15">
         <f>VLOOKUP(C22,RA!B26:D52,3,0)</f>
         <v>531749.33330000006</v>
@@ -52598,14 +52680,14 @@
       <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="68"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="12">
         <v>34</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="15">
         <f>VLOOKUP(C23,RA!B26:D53,3,0)</f>
         <v>225104.63699999999</v>
@@ -52641,14 +52723,14 @@
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="68"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="12">
         <v>35</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="63"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="15">
         <f>VLOOKUP(C24,RA!B28:D54,3,0)</f>
         <v>796378.06900000002</v>
@@ -52684,14 +52766,14 @@
       <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="68"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="12">
         <v>36</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="63"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="15">
         <f>VLOOKUP(C25,RA!B28:D55,3,0)</f>
         <v>811636.09939999995</v>
@@ -52727,14 +52809,14 @@
       <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="68"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="12">
         <v>37</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="63"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="15">
         <f>VLOOKUP(C26,RA!B30:D56,3,0)</f>
         <v>1015200.6446999999</v>
@@ -52770,14 +52852,14 @@
       <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="68"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="12">
         <v>38</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="63"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="15">
         <f>VLOOKUP(C27,RA!B30:D57,3,0)</f>
         <v>657749.30299999996</v>
@@ -52813,14 +52895,14 @@
       <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="68"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="12">
         <v>39</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="63"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="15">
         <f>VLOOKUP(C28,RA!B32:D58,3,0)</f>
         <v>97469.334900000002</v>
@@ -52856,14 +52938,14 @@
       <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="68"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="12">
         <v>40</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="63"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="15">
         <f>VLOOKUP(C29,RA!B32:D59,3,0)</f>
         <v>0</v>
@@ -52899,14 +52981,14 @@
       <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:13" ht="12" thickBot="1">
-      <c r="A30" s="68"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="12">
         <v>42</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="63"/>
+      <c r="D30" s="64"/>
       <c r="E30" s="15">
         <f>VLOOKUP(C30,RA!B34:D61,3,0)</f>
         <v>124728.03290000001</v>
@@ -52942,29 +53024,29 @@
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" s="35" customFormat="1" ht="12" thickBot="1">
-      <c r="A31" s="68"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="12">
         <v>70</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="70"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="15">
         <f>VLOOKUP(C31,RA!B35:D62,3,0)</f>
-        <v>81488.94</v>
+        <v>90540.21</v>
       </c>
       <c r="F31" s="25">
         <f>VLOOKUP(C31,RA!B35:I66,8,0)</f>
-        <v>1259.18</v>
+        <v>831.83</v>
       </c>
       <c r="G31" s="16">
         <f t="shared" si="0"/>
-        <v>80229.760000000009</v>
+        <v>89708.38</v>
       </c>
       <c r="H31" s="27">
         <f>RA!J35</f>
-        <v>1.54521582928923</v>
+        <v>0.91874096603045197</v>
       </c>
       <c r="I31" s="20">
         <f>VLOOKUP(B31,RMS!B:D,3,FALSE)</f>
@@ -52976,22 +53058,22 @@
       </c>
       <c r="K31" s="22">
         <f t="shared" si="1"/>
-        <v>-9051.2700000000041</v>
+        <v>0</v>
       </c>
       <c r="L31" s="22">
         <f t="shared" si="2"/>
-        <v>-9478.6199999999953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="68"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="12">
         <v>71</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="63"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="15">
         <f>VLOOKUP(C32,RA!B34:D62,3,0)</f>
         <v>76444.5</v>
@@ -53006,7 +53088,7 @@
       </c>
       <c r="H32" s="27">
         <f>RA!J35</f>
-        <v>1.54521582928923</v>
+        <v>0.91874096603045197</v>
       </c>
       <c r="I32" s="20">
         <f>VLOOKUP(B32,RMS!B:D,3,FALSE)</f>
@@ -53027,14 +53109,14 @@
       <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="68"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="12">
         <v>72</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="63"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="15">
         <f>VLOOKUP(C33,RA!B34:D63,3,0)</f>
         <v>9182.0499999999993</v>
@@ -53070,14 +53152,14 @@
       <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="68"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="12">
         <v>73</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="63"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="15">
         <f>VLOOKUP(C34,RA!B35:D64,3,0)</f>
         <v>106047.05</v>
@@ -53092,7 +53174,7 @@
       </c>
       <c r="H34" s="27">
         <f>RA!J35</f>
-        <v>1.54521582928923</v>
+        <v>0.91874096603045197</v>
       </c>
       <c r="I34" s="20">
         <f>VLOOKUP(B34,RMS!B:D,3,FALSE)</f>
@@ -53113,14 +53195,14 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:13" s="35" customFormat="1">
-      <c r="A35" s="68"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="12">
         <v>74</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="63"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="15">
         <f>VLOOKUP(C35,RA!B36:D65,3,0)</f>
         <v>0.85</v>
@@ -53155,14 +53237,14 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="11.25" customHeight="1">
-      <c r="A36" s="68"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="12">
         <v>75</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="63"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="15">
         <f>VLOOKUP(C36,RA!B8:D65,3,0)</f>
         <v>41661.5553</v>
@@ -53198,14 +53280,14 @@
       <c r="M36" s="32"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="68"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="12">
         <v>76</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="63"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="15">
         <f>VLOOKUP(C37,RA!B8:D66,3,0)</f>
         <v>1208192.5193</v>
@@ -53241,14 +53323,14 @@
       <c r="M37" s="32"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="68"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="12">
         <v>77</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="63"/>
+      <c r="D38" s="64"/>
       <c r="E38" s="15">
         <f>VLOOKUP(C38,RA!B9:D67,3,0)</f>
         <v>77081.25</v>
@@ -53284,14 +53366,14 @@
       <c r="M38" s="32"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="68"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="12">
         <v>78</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="63"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="15">
         <f>VLOOKUP(C39,RA!B10:D68,3,0)</f>
         <v>58347.01</v>
@@ -53327,14 +53409,14 @@
       <c r="M39" s="32"/>
     </row>
     <row r="40" spans="1:13" s="36" customFormat="1">
-      <c r="A40" s="68"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="12">
         <v>9101</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="65"/>
+      <c r="D40" s="70"/>
       <c r="E40" s="15">
         <f>VLOOKUP(C40,RA!B11:D69,3,0)</f>
         <v>0</v>
@@ -53369,14 +53451,14 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="68"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="12">
         <v>99</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="63"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="15">
         <f>VLOOKUP(C41,RA!B8:D69,3,0)</f>
         <v>473359.39789999998</v>
@@ -53413,6 +53495,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -53429,31 +53536,6 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -53687,25 +53769,25 @@
       <c r="B7" s="77"/>
       <c r="C7" s="78"/>
       <c r="D7" s="51">
-        <v>17724393.328699999</v>
+        <v>17733444.598700002</v>
       </c>
       <c r="E7" s="51">
         <v>15584156.456</v>
       </c>
       <c r="F7" s="52">
-        <v>113.7334149509</v>
+        <v>113.791494899119</v>
       </c>
       <c r="G7" s="51">
         <v>13133278.7892</v>
       </c>
       <c r="H7" s="52">
-        <v>34.9578701038118</v>
+        <v>35.026788689530399</v>
       </c>
       <c r="I7" s="51">
-        <v>1103427.8367000001</v>
+        <v>1103000.4867</v>
       </c>
       <c r="J7" s="52">
-        <v>6.2254759090303402</v>
+        <v>6.2198885307418399</v>
       </c>
       <c r="K7" s="51">
         <v>1373740.6769000001</v>
@@ -53714,13 +53796,13 @@
         <v>10.4599978341256</v>
       </c>
       <c r="M7" s="52">
-        <v>-0.19677137377193499</v>
+        <v>-0.19708245868569299</v>
       </c>
       <c r="N7" s="51">
-        <v>593685112.44500005</v>
+        <v>593694163.71500003</v>
       </c>
       <c r="O7" s="51">
-        <v>2332776210.8557</v>
+        <v>2332785262.1257</v>
       </c>
       <c r="P7" s="51">
         <v>794603</v>
@@ -53732,23 +53814,23 @@
         <v>9.1700578959082595</v>
       </c>
       <c r="S7" s="51">
-        <v>22.305973333476</v>
+        <v>22.317364267061699</v>
       </c>
       <c r="T7" s="51">
         <v>21.431583751501002</v>
       </c>
       <c r="U7" s="53">
-        <v>3.91997950012223</v>
+        <v>3.9690193920794599</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="12" thickBot="1">
       <c r="A8" s="79">
         <v>42460</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="54">
         <v>584395.46759999997</v>
       </c>
@@ -53806,10 +53888,10 @@
     </row>
     <row r="9" spans="1:23" ht="12" thickBot="1">
       <c r="A9" s="80"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="54">
         <v>55871.022799999999</v>
       </c>
@@ -53867,10 +53949,10 @@
     </row>
     <row r="10" spans="1:23" ht="12" thickBot="1">
       <c r="A10" s="80"/>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="70"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="54">
         <v>134383.41269999999</v>
       </c>
@@ -53928,10 +54010,10 @@
     </row>
     <row r="11" spans="1:23" ht="12" thickBot="1">
       <c r="A11" s="80"/>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="54">
         <v>48355.943500000001</v>
       </c>
@@ -53989,10 +54071,10 @@
     </row>
     <row r="12" spans="1:23" ht="12" thickBot="1">
       <c r="A12" s="80"/>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="54">
         <v>141813.15599999999</v>
       </c>
@@ -54050,10 +54132,10 @@
     </row>
     <row r="13" spans="1:23" ht="12" thickBot="1">
       <c r="A13" s="80"/>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="70"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="54">
         <v>159101.48509999999</v>
       </c>
@@ -54111,10 +54193,10 @@
     </row>
     <row r="14" spans="1:23" ht="12" thickBot="1">
       <c r="A14" s="80"/>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="70"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="54">
         <v>108531.38159999999</v>
       </c>
@@ -54172,10 +54254,10 @@
     </row>
     <row r="15" spans="1:23" ht="12" thickBot="1">
       <c r="A15" s="80"/>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="70"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="54">
         <v>62872.661200000002</v>
       </c>
@@ -54233,10 +54315,10 @@
     </row>
     <row r="16" spans="1:23" ht="12" thickBot="1">
       <c r="A16" s="80"/>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="70"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="54">
         <v>819361.91350000002</v>
       </c>
@@ -54294,10 +54376,10 @@
     </row>
     <row r="17" spans="1:21" ht="12" thickBot="1">
       <c r="A17" s="80"/>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="70"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="54">
         <v>469808.1447</v>
       </c>
@@ -54353,12 +54435,12 @@
         <v>-346.83018265750002</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="12" thickBot="1">
+    <row r="18" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A18" s="80"/>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="70"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="54">
         <v>1641897.5026</v>
       </c>
@@ -54414,12 +54496,12 @@
         <v>10.3257387150179</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="12" thickBot="1">
+    <row r="19" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A19" s="80"/>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="70"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="54">
         <v>658734.08629999997</v>
       </c>
@@ -54477,10 +54559,10 @@
     </row>
     <row r="20" spans="1:21" ht="12" thickBot="1">
       <c r="A20" s="80"/>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="70"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="54">
         <v>966157.51210000005</v>
       </c>
@@ -54536,12 +54618,12 @@
         <v>15.7006469244528</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="12" thickBot="1">
+    <row r="21" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A21" s="80"/>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="70"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="54">
         <v>341398.01539999997</v>
       </c>
@@ -54597,12 +54679,12 @@
         <v>-18.353299437862699</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="12" thickBot="1">
+    <row r="22" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A22" s="80"/>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="70"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="54">
         <v>1613775.8504000001</v>
       </c>
@@ -54660,10 +54742,10 @@
     </row>
     <row r="23" spans="1:21" ht="12" thickBot="1">
       <c r="A23" s="80"/>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="70"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="54">
         <v>3045294.1749999998</v>
       </c>
@@ -54721,10 +54803,10 @@
     </row>
     <row r="24" spans="1:21" ht="12" thickBot="1">
       <c r="A24" s="80"/>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="70"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="54">
         <v>217860.58929999999</v>
       </c>
@@ -54782,10 +54864,10 @@
     </row>
     <row r="25" spans="1:21" ht="12" thickBot="1">
       <c r="A25" s="80"/>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="70"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="54">
         <v>262960.43219999998</v>
       </c>
@@ -54843,10 +54925,10 @@
     </row>
     <row r="26" spans="1:21" ht="12" thickBot="1">
       <c r="A26" s="80"/>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="70"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="54">
         <v>531749.33330000006</v>
       </c>
@@ -54904,10 +54986,10 @@
     </row>
     <row r="27" spans="1:21" ht="12" thickBot="1">
       <c r="A27" s="80"/>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="70"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="54">
         <v>225104.63699999999</v>
       </c>
@@ -54965,10 +55047,10 @@
     </row>
     <row r="28" spans="1:21" ht="12" thickBot="1">
       <c r="A28" s="80"/>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="70"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="54">
         <v>796378.06900000002</v>
       </c>
@@ -55026,10 +55108,10 @@
     </row>
     <row r="29" spans="1:21" ht="12" thickBot="1">
       <c r="A29" s="80"/>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="54">
         <v>811636.09939999995</v>
       </c>
@@ -55087,10 +55169,10 @@
     </row>
     <row r="30" spans="1:21" ht="12" thickBot="1">
       <c r="A30" s="80"/>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="54">
         <v>1015200.6446999999</v>
       </c>
@@ -55148,10 +55230,10 @@
     </row>
     <row r="31" spans="1:21" ht="12" thickBot="1">
       <c r="A31" s="80"/>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="54">
         <v>657749.30299999996</v>
       </c>
@@ -55209,10 +55291,10 @@
     </row>
     <row r="32" spans="1:21" ht="12" thickBot="1">
       <c r="A32" s="80"/>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="70"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="54">
         <v>97469.334900000002</v>
       </c>
@@ -55270,10 +55352,10 @@
     </row>
     <row r="33" spans="1:21" ht="12" thickBot="1">
       <c r="A33" s="80"/>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55"/>
@@ -55299,10 +55381,10 @@
     </row>
     <row r="34" spans="1:21" ht="12" thickBot="1">
       <c r="A34" s="80"/>
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="70"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="54">
         <v>124728.03290000001</v>
       </c>
@@ -55358,14 +55440,14 @@
         <v>-208.17561589150199</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="12" thickBot="1">
+    <row r="35" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A35" s="80"/>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="70"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="54">
-        <v>81488.94</v>
+        <v>90540.21</v>
       </c>
       <c r="E35" s="55"/>
       <c r="F35" s="55"/>
@@ -55373,13 +55455,13 @@
         <v>499.35</v>
       </c>
       <c r="H35" s="56">
-        <v>16219.002703514599</v>
+        <v>18031.6130970261</v>
       </c>
       <c r="I35" s="54">
-        <v>1259.18</v>
+        <v>831.83</v>
       </c>
       <c r="J35" s="56">
-        <v>1.54521582928923</v>
+        <v>0.91874096603045197</v>
       </c>
       <c r="K35" s="54">
         <v>-128.85</v>
@@ -55388,13 +55470,13 @@
         <v>-25.8035446079904</v>
       </c>
       <c r="M35" s="56">
-        <v>-10.772448583624399</v>
+        <v>-7.4558013193635997</v>
       </c>
       <c r="N35" s="54">
-        <v>3040258.69</v>
+        <v>3049309.96</v>
       </c>
       <c r="O35" s="54">
-        <v>15191788.960000001</v>
+        <v>15200840.23</v>
       </c>
       <c r="P35" s="54">
         <v>56</v>
@@ -55406,21 +55488,21 @@
         <v>9.8039215686274606</v>
       </c>
       <c r="S35" s="54">
-        <v>1455.1596428571399</v>
+        <v>1616.78946428571</v>
       </c>
       <c r="T35" s="54">
         <v>1502.51450980392</v>
       </c>
       <c r="U35" s="57">
-        <v>-3.2542729713009102</v>
+        <v>7.06801701805239</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="12" thickBot="1">
       <c r="A36" s="80"/>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="70"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="54">
         <v>76444.5</v>
       </c>
@@ -55474,10 +55556,10 @@
     </row>
     <row r="37" spans="1:21" ht="12" thickBot="1">
       <c r="A37" s="80"/>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="54">
         <v>9182.0499999999993</v>
       </c>
@@ -55531,10 +55613,10 @@
     </row>
     <row r="38" spans="1:21" ht="12" thickBot="1">
       <c r="A38" s="80"/>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="54">
         <v>106047.05</v>
       </c>
@@ -55588,10 +55670,10 @@
     </row>
     <row r="39" spans="1:21" ht="12" thickBot="1">
       <c r="A39" s="80"/>
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="70"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="54">
         <v>0.85</v>
       </c>
@@ -55635,12 +55717,12 @@
       <c r="T39" s="55"/>
       <c r="U39" s="58"/>
     </row>
-    <row r="40" spans="1:21" ht="12" thickBot="1">
+    <row r="40" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A40" s="80"/>
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="70"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="54">
         <v>41661.5553</v>
       </c>
@@ -55694,10 +55776,10 @@
     </row>
     <row r="41" spans="1:21" ht="12" thickBot="1">
       <c r="A41" s="80"/>
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="70"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="54">
         <v>1208192.5193</v>
       </c>
@@ -55755,10 +55837,10 @@
     </row>
     <row r="42" spans="1:21" ht="12" thickBot="1">
       <c r="A42" s="80"/>
-      <c r="B42" s="69" t="s">
+      <c r="B42" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="70"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="54">
         <v>77081.25</v>
       </c>
@@ -55812,10 +55894,10 @@
     </row>
     <row r="43" spans="1:21" ht="12" thickBot="1">
       <c r="A43" s="80"/>
-      <c r="B43" s="69" t="s">
+      <c r="B43" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="70"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="54">
         <v>58347.01</v>
       </c>
@@ -55869,10 +55951,10 @@
     </row>
     <row r="44" spans="1:21" ht="12" thickBot="1">
       <c r="A44" s="80"/>
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="70"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="55"/>
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
@@ -55896,10 +55978,10 @@
     </row>
     <row r="45" spans="1:21" ht="12" thickBot="1">
       <c r="A45" s="81"/>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="70"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="59">
         <v>473359.39789999998</v>
       </c>
@@ -55953,6 +56035,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:U4"/>
@@ -55969,33 +56078,6 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
